--- a/Sep19/pos_gains/Tables/region.xlsx
+++ b/Sep19/pos_gains/Tables/region.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -428,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -456,68 +459,102 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.6006822569043333</v>
@@ -567,10 +604,34 @@
       <c r="Q4">
         <v>0.2817789598315847</v>
       </c>
+      <c r="R4">
+        <v>40382028217</v>
+      </c>
+      <c r="S4">
+        <v>37272812891</v>
+      </c>
+      <c r="T4">
+        <v>30234495459</v>
+      </c>
+      <c r="U4">
+        <v>37431215439</v>
+      </c>
+      <c r="V4">
+        <v>66677217402</v>
+      </c>
+      <c r="W4">
+        <v>66677217402</v>
+      </c>
+      <c r="X4">
+        <v>66677217402</v>
+      </c>
+      <c r="Y4">
+        <v>66677217402</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>5.478435289412998</v>
@@ -620,10 +681,34 @@
       <c r="Q5">
         <v>0.3919139311670999</v>
       </c>
+      <c r="R5">
+        <v>59581902456</v>
+      </c>
+      <c r="S5">
+        <v>59847798241</v>
+      </c>
+      <c r="T5">
+        <v>57906933849</v>
+      </c>
+      <c r="U5">
+        <v>58157825465</v>
+      </c>
+      <c r="V5">
+        <v>66483805754</v>
+      </c>
+      <c r="W5">
+        <v>66483805754</v>
+      </c>
+      <c r="X5">
+        <v>66483805754</v>
+      </c>
+      <c r="Y5">
+        <v>66483805754</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>6.270328436048069</v>
@@ -673,10 +758,34 @@
       <c r="Q6">
         <v>0.6127455821669349</v>
       </c>
+      <c r="R6">
+        <v>12716278503</v>
+      </c>
+      <c r="S6">
+        <v>12679471304</v>
+      </c>
+      <c r="T6">
+        <v>11918971016</v>
+      </c>
+      <c r="U6">
+        <v>12679471304</v>
+      </c>
+      <c r="V6">
+        <v>17853638274</v>
+      </c>
+      <c r="W6">
+        <v>17853638274</v>
+      </c>
+      <c r="X6">
+        <v>17853638274</v>
+      </c>
+      <c r="Y6">
+        <v>17853638274</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1.607734394487932</v>
@@ -726,10 +835,34 @@
       <c r="Q7">
         <v>0.5094297342777162</v>
       </c>
+      <c r="R7">
+        <v>699911008</v>
+      </c>
+      <c r="S7">
+        <v>699911008</v>
+      </c>
+      <c r="T7">
+        <v>699911008</v>
+      </c>
+      <c r="U7">
+        <v>699911008</v>
+      </c>
+      <c r="V7">
+        <v>5767699375</v>
+      </c>
+      <c r="W7">
+        <v>5767699375</v>
+      </c>
+      <c r="X7">
+        <v>5767699375</v>
+      </c>
+      <c r="Y7">
+        <v>5767699375</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>5.877433505740076</v>
@@ -779,10 +912,34 @@
       <c r="Q8">
         <v>0.2048529706690015</v>
       </c>
+      <c r="R8">
+        <v>885447038872</v>
+      </c>
+      <c r="S8">
+        <v>885447038872</v>
+      </c>
+      <c r="T8">
+        <v>885447038872</v>
+      </c>
+      <c r="U8">
+        <v>885447038872</v>
+      </c>
+      <c r="V8">
+        <v>885447038872</v>
+      </c>
+      <c r="W8">
+        <v>885447038872</v>
+      </c>
+      <c r="X8">
+        <v>885447038872</v>
+      </c>
+      <c r="Y8">
+        <v>885447038872</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>656.8122986162234</v>
@@ -820,10 +977,28 @@
       <c r="Q9">
         <v>0.3411401792246058</v>
       </c>
+      <c r="S9">
+        <v>12096909667</v>
+      </c>
+      <c r="U9">
+        <v>12096909667</v>
+      </c>
+      <c r="V9">
+        <v>12956669707</v>
+      </c>
+      <c r="W9">
+        <v>12956669707</v>
+      </c>
+      <c r="X9">
+        <v>12956669707</v>
+      </c>
+      <c r="Y9">
+        <v>12956669707</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>4.658156312015999</v>
@@ -873,11 +1048,36 @@
       <c r="Q10">
         <v>2.306901271149125</v>
       </c>
+      <c r="R10">
+        <v>660204378</v>
+      </c>
+      <c r="S10">
+        <v>-130919670</v>
+      </c>
+      <c r="T10">
+        <v>660204378</v>
+      </c>
+      <c r="U10">
+        <v>705481484</v>
+      </c>
+      <c r="V10">
+        <v>1212797515</v>
+      </c>
+      <c r="W10">
+        <v>1212797515</v>
+      </c>
+      <c r="X10">
+        <v>1212797515</v>
+      </c>
+      <c r="Y10">
+        <v>1212797515</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sep19/pos_gains/Tables/region.xlsx
+++ b/Sep19/pos_gains/Tables/region.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -563,16 +563,16 @@
         <v>1.671838043388898</v>
       </c>
       <c r="D4">
+        <v>0.1444038325781777</v>
+      </c>
+      <c r="E4">
+        <v>0.2864124336660265</v>
+      </c>
+      <c r="F4">
         <v>0.7220191628908885</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1.432062168330132</v>
-      </c>
-      <c r="F4">
-        <v>0.1044387106838495</v>
-      </c>
-      <c r="G4">
-        <v>0.144230804596445</v>
       </c>
       <c r="H4">
         <v>0.5221935534192474</v>
@@ -593,10 +593,10 @@
         <v>0.2983479814380922</v>
       </c>
       <c r="N4">
-        <v>0.2817789598315847</v>
+        <v>0.3249752908006679</v>
       </c>
       <c r="O4">
-        <v>0.2817789598315847</v>
+        <v>0.2983479814380922</v>
       </c>
       <c r="P4">
         <v>0.2817789598315847</v>
@@ -617,10 +617,10 @@
         <v>37431215439</v>
       </c>
       <c r="V4">
-        <v>66677217402</v>
+        <v>30234495459</v>
       </c>
       <c r="W4">
-        <v>66677217402</v>
+        <v>37431215439</v>
       </c>
       <c r="X4">
         <v>66677217402</v>
@@ -640,16 +640,16 @@
         <v>5.280714495482187</v>
       </c>
       <c r="D5">
+        <v>0.9793210772198419</v>
+      </c>
+      <c r="E5">
+        <v>0.9527482642247342</v>
+      </c>
+      <c r="F5">
         <v>4.896605386099208</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>4.763741321123669</v>
-      </c>
-      <c r="F5">
-        <v>0.496321741057735</v>
-      </c>
-      <c r="G5">
-        <v>0.4899853465122265</v>
       </c>
       <c r="H5">
         <v>2.481608705288674</v>
@@ -670,10 +670,10 @@
         <v>0.3801602000973301</v>
       </c>
       <c r="N5">
-        <v>0.3919139311670999</v>
+        <v>0.3810931461255584</v>
       </c>
       <c r="O5">
-        <v>0.3919139311670999</v>
+        <v>0.3801602000973301</v>
       </c>
       <c r="P5">
         <v>0.3919139311670999</v>
@@ -694,10 +694,10 @@
         <v>58157825465</v>
       </c>
       <c r="V5">
-        <v>66483805754</v>
+        <v>57906933849</v>
       </c>
       <c r="W5">
-        <v>66483805754</v>
+        <v>58157825465</v>
       </c>
       <c r="X5">
         <v>66483805754</v>
@@ -717,16 +717,16 @@
         <v>14.41407461780045</v>
       </c>
       <c r="D6">
+        <v>1.261792182335697</v>
+      </c>
+      <c r="E6">
+        <v>2.325802686824072</v>
+      </c>
+      <c r="F6">
         <v>6.308960911678486</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>11.62901343412036</v>
-      </c>
-      <c r="F6">
-        <v>0.4364019127925544</v>
-      </c>
-      <c r="G6">
-        <v>0.8208845497190327</v>
       </c>
       <c r="H6">
         <v>2.182009563962773</v>
@@ -747,10 +747,10 @@
         <v>0.8219221919538799</v>
       </c>
       <c r="N6">
-        <v>0.6127455821669349</v>
+        <v>0.8565649371321535</v>
       </c>
       <c r="O6">
-        <v>0.6127455821669349</v>
+        <v>0.8219221919538799</v>
       </c>
       <c r="P6">
         <v>0.6127455821669349</v>
@@ -771,10 +771,10 @@
         <v>12679471304</v>
       </c>
       <c r="V6">
-        <v>17853638274</v>
+        <v>11918971016</v>
       </c>
       <c r="W6">
-        <v>17853638274</v>
+        <v>12679471304</v>
       </c>
       <c r="X6">
         <v>17853638274</v>
@@ -794,16 +794,16 @@
         <v>3.495057928901331</v>
       </c>
       <c r="D7">
+        <v>0.4011586875667229</v>
+      </c>
+      <c r="E7">
+        <v>0.6547424995451263</v>
+      </c>
+      <c r="F7">
         <v>2.005793437833615</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>3.273712497725632</v>
-      </c>
-      <c r="F7">
-        <v>0.1111242050210777</v>
-      </c>
-      <c r="G7">
-        <v>0.1700134341179624</v>
       </c>
       <c r="H7">
         <v>0.5556210251053882</v>
@@ -824,10 +824,10 @@
         <v>1.635841791189545</v>
       </c>
       <c r="N7">
-        <v>0.5094297342777162</v>
+        <v>1.635841791189545</v>
       </c>
       <c r="O7">
-        <v>0.5094297342777162</v>
+        <v>1.635841791189545</v>
       </c>
       <c r="P7">
         <v>0.5094297342777162</v>
@@ -848,10 +848,10 @@
         <v>699911008</v>
       </c>
       <c r="V7">
-        <v>5767699375</v>
+        <v>699911008</v>
       </c>
       <c r="W7">
-        <v>5767699375</v>
+        <v>699911008</v>
       </c>
       <c r="X7">
         <v>5767699375</v>
@@ -871,16 +871,16 @@
         <v>2.486314796390639</v>
       </c>
       <c r="D8">
+        <v>1.508446806846264</v>
+      </c>
+      <c r="E8">
+        <v>1.052810667356595</v>
+      </c>
+      <c r="F8">
         <v>7.542234034231321</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>5.264053336782998</v>
-      </c>
-      <c r="F8">
-        <v>4.465091788871077</v>
-      </c>
-      <c r="G8">
-        <v>4.300625795639975</v>
       </c>
       <c r="H8">
         <v>22.32545894435539</v>
@@ -945,13 +945,10 @@
         <v>656.8122986162234</v>
       </c>
       <c r="E9">
+        <v>74.30184066874688</v>
+      </c>
+      <c r="G9">
         <v>371.5092033437344</v>
-      </c>
-      <c r="F9">
-        <v>2.445856528199673</v>
-      </c>
-      <c r="G9">
-        <v>11.09828147919903</v>
       </c>
       <c r="H9">
         <v>12.22928264099839</v>
@@ -965,11 +962,8 @@
       <c r="M9">
         <v>0.33845850318029</v>
       </c>
-      <c r="N9">
-        <v>0.3411401792246058</v>
-      </c>
       <c r="O9">
-        <v>0.3411401792246058</v>
+        <v>0.33845850318029</v>
       </c>
       <c r="P9">
         <v>0.3411401792246058</v>
@@ -983,11 +977,8 @@
       <c r="U9">
         <v>12096909667</v>
       </c>
-      <c r="V9">
-        <v>12956669707</v>
-      </c>
       <c r="W9">
-        <v>12956669707</v>
+        <v>12096909667</v>
       </c>
       <c r="X9">
         <v>12956669707</v>
@@ -1007,16 +998,16 @@
         <v>7.748515842425757</v>
       </c>
       <c r="D10">
+        <v>1.752984198602219</v>
+      </c>
+      <c r="E10">
+        <v>1.966070396094679</v>
+      </c>
+      <c r="F10">
         <v>8.764920993011094</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>9.830351980473397</v>
-      </c>
-      <c r="F10">
-        <v>0.262449968565363</v>
-      </c>
-      <c r="G10">
-        <v>0.3420212462738118</v>
       </c>
       <c r="H10">
         <v>1.312249842826815</v>
@@ -1037,10 +1028,10 @@
         <v>3.658638780093058</v>
       </c>
       <c r="N10">
-        <v>2.306901271149125</v>
+        <v>3.901985039547859</v>
       </c>
       <c r="O10">
-        <v>2.306901271149125</v>
+        <v>3.658638780093058</v>
       </c>
       <c r="P10">
         <v>2.306901271149125</v>
@@ -1061,10 +1052,10 @@
         <v>705481484</v>
       </c>
       <c r="V10">
-        <v>1212797515</v>
+        <v>660204378</v>
       </c>
       <c r="W10">
-        <v>1212797515</v>
+        <v>705481484</v>
       </c>
       <c r="X10">
         <v>1212797515</v>

--- a/Sep19/pos_gains/Tables/region.xlsx
+++ b/Sep19/pos_gains/Tables/region.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -563,22 +563,22 @@
         <v>1.671838043388898</v>
       </c>
       <c r="D4">
-        <v>0.1444038325781777</v>
+        <v>0.7220191628908885</v>
       </c>
       <c r="E4">
-        <v>0.2864124336660265</v>
+        <v>1.432062168330132</v>
       </c>
       <c r="F4">
-        <v>0.7220191628908885</v>
+        <v>0.08070862982214382</v>
       </c>
       <c r="G4">
-        <v>1.432062168330132</v>
+        <v>0.2246308363790102</v>
       </c>
       <c r="H4">
-        <v>0.5221935534192474</v>
+        <v>0.4035431491107195</v>
       </c>
       <c r="I4">
-        <v>0.7211540229822249</v>
+        <v>1.123154181895052</v>
       </c>
       <c r="J4">
         <v>0.2844343959465764</v>
@@ -593,16 +593,16 @@
         <v>0.2983479814380922</v>
       </c>
       <c r="N4">
-        <v>0.3249752908006679</v>
+        <v>0.2844343959465764</v>
       </c>
       <c r="O4">
-        <v>0.2983479814380922</v>
+        <v>0.2988560890903328</v>
       </c>
       <c r="P4">
-        <v>0.2817789598315847</v>
+        <v>0.2844343959465764</v>
       </c>
       <c r="Q4">
-        <v>0.2817789598315847</v>
+        <v>0.2988560890903328</v>
       </c>
       <c r="R4">
         <v>40382028217</v>
@@ -617,16 +617,16 @@
         <v>37431215439</v>
       </c>
       <c r="V4">
-        <v>30234495459</v>
+        <v>40382028217</v>
       </c>
       <c r="W4">
-        <v>37431215439</v>
+        <v>37272812891</v>
       </c>
       <c r="X4">
-        <v>66677217402</v>
+        <v>40382028217</v>
       </c>
       <c r="Y4">
-        <v>66677217402</v>
+        <v>37272812891</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -640,22 +640,22 @@
         <v>5.280714495482187</v>
       </c>
       <c r="D5">
-        <v>0.9793210772198419</v>
+        <v>4.896605386099208</v>
       </c>
       <c r="E5">
-        <v>0.9527482642247342</v>
+        <v>4.763741321123669</v>
       </c>
       <c r="F5">
-        <v>4.896605386099208</v>
+        <v>0.736091337301183</v>
       </c>
       <c r="G5">
-        <v>4.763741321123669</v>
+        <v>0.7095252548473049</v>
       </c>
       <c r="H5">
-        <v>2.481608705288674</v>
+        <v>3.680456686505918</v>
       </c>
       <c r="I5">
-        <v>2.449926732561133</v>
+        <v>3.547626274236525</v>
       </c>
       <c r="J5">
         <v>0.4118397250930507</v>
@@ -670,16 +670,16 @@
         <v>0.3801602000973301</v>
       </c>
       <c r="N5">
-        <v>0.3810931461255584</v>
+        <v>0.4118397250930507</v>
       </c>
       <c r="O5">
-        <v>0.3801602000973301</v>
+        <v>0.4107452191642941</v>
       </c>
       <c r="P5">
-        <v>0.3919139311670999</v>
+        <v>0.4118397250930507</v>
       </c>
       <c r="Q5">
-        <v>0.3919139311670999</v>
+        <v>0.4107452191642941</v>
       </c>
       <c r="R5">
         <v>59581902456</v>
@@ -694,16 +694,16 @@
         <v>58157825465</v>
       </c>
       <c r="V5">
-        <v>57906933849</v>
+        <v>59581902456</v>
       </c>
       <c r="W5">
-        <v>58157825465</v>
+        <v>59847798241</v>
       </c>
       <c r="X5">
-        <v>66483805754</v>
+        <v>59581902456</v>
       </c>
       <c r="Y5">
-        <v>66483805754</v>
+        <v>59847798241</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -717,22 +717,22 @@
         <v>14.41407461780045</v>
       </c>
       <c r="D6">
-        <v>1.261792182335697</v>
+        <v>6.308960911678486</v>
       </c>
       <c r="E6">
-        <v>2.325802686824072</v>
+        <v>11.62901343412036</v>
       </c>
       <c r="F6">
-        <v>6.308960911678486</v>
+        <v>0.8424913684255282</v>
       </c>
       <c r="G6">
-        <v>11.62901343412036</v>
+        <v>1.936698144793205</v>
       </c>
       <c r="H6">
-        <v>2.182009563962773</v>
+        <v>4.212456842127642</v>
       </c>
       <c r="I6">
-        <v>4.104422748595163</v>
+        <v>9.683490723966024</v>
       </c>
       <c r="J6">
         <v>0.8134974268265285</v>
@@ -747,16 +747,16 @@
         <v>0.8219221919538799</v>
       </c>
       <c r="N6">
-        <v>0.8565649371321535</v>
+        <v>0.8134974268265285</v>
       </c>
       <c r="O6">
         <v>0.8219221919538799</v>
       </c>
       <c r="P6">
-        <v>0.6127455821669349</v>
+        <v>0.8134974268265285</v>
       </c>
       <c r="Q6">
-        <v>0.6127455821669349</v>
+        <v>0.8219221919538799</v>
       </c>
       <c r="R6">
         <v>12716278503</v>
@@ -771,16 +771,16 @@
         <v>12679471304</v>
       </c>
       <c r="V6">
-        <v>11918971016</v>
+        <v>12716278503</v>
       </c>
       <c r="W6">
         <v>12679471304</v>
       </c>
       <c r="X6">
-        <v>17853638274</v>
+        <v>12716278503</v>
       </c>
       <c r="Y6">
-        <v>17853638274</v>
+        <v>12679471304</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -794,22 +794,22 @@
         <v>3.495057928901331</v>
       </c>
       <c r="D7">
-        <v>0.4011586875667229</v>
+        <v>2.005793437833615</v>
       </c>
       <c r="E7">
-        <v>0.6547424995451263</v>
+        <v>3.273712497725632</v>
       </c>
       <c r="F7">
-        <v>2.005793437833615</v>
+        <v>0.2160177674728969</v>
       </c>
       <c r="G7">
-        <v>3.273712497725632</v>
+        <v>0.4696015794513003</v>
       </c>
       <c r="H7">
-        <v>0.5556210251053882</v>
+        <v>1.080088837364485</v>
       </c>
       <c r="I7">
-        <v>0.8500671705898121</v>
+        <v>2.348007897256501</v>
       </c>
       <c r="J7">
         <v>1.635841791189545</v>
@@ -830,10 +830,10 @@
         <v>1.635841791189545</v>
       </c>
       <c r="P7">
-        <v>0.5094297342777162</v>
+        <v>1.635841791189545</v>
       </c>
       <c r="Q7">
-        <v>0.5094297342777162</v>
+        <v>1.635841791189545</v>
       </c>
       <c r="R7">
         <v>699911008</v>
@@ -854,10 +854,10 @@
         <v>699911008</v>
       </c>
       <c r="X7">
-        <v>5767699375</v>
+        <v>699911008</v>
       </c>
       <c r="Y7">
-        <v>5767699375</v>
+        <v>699911008</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -871,22 +871,22 @@
         <v>2.486314796390639</v>
       </c>
       <c r="D8">
-        <v>1.508446806846264</v>
+        <v>7.542234034231321</v>
       </c>
       <c r="E8">
-        <v>1.052810667356595</v>
+        <v>5.264053336782998</v>
       </c>
       <c r="F8">
-        <v>7.542234034231321</v>
+        <v>0.7897013765042615</v>
       </c>
       <c r="G8">
-        <v>5.264053336782998</v>
+        <v>0.3340652370145926</v>
       </c>
       <c r="H8">
-        <v>22.32545894435539</v>
+        <v>3.948506882521332</v>
       </c>
       <c r="I8">
-        <v>21.50312897819985</v>
+        <v>1.670326185072986</v>
       </c>
       <c r="J8">
         <v>0.2048529706690015</v>
@@ -945,16 +945,13 @@
         <v>656.8122986162234</v>
       </c>
       <c r="E9">
-        <v>74.30184066874688</v>
+        <v>371.5092033437344</v>
       </c>
       <c r="G9">
-        <v>371.5092033437344</v>
-      </c>
-      <c r="H9">
-        <v>12.22928264099839</v>
+        <v>88.25035209936431</v>
       </c>
       <c r="I9">
-        <v>55.4914073959952</v>
+        <v>441.2517604968218</v>
       </c>
       <c r="K9">
         <v>0.33845850318029</v>
@@ -965,11 +962,8 @@
       <c r="O9">
         <v>0.33845850318029</v>
       </c>
-      <c r="P9">
-        <v>0.3411401792246058</v>
-      </c>
       <c r="Q9">
-        <v>0.3411401792246058</v>
+        <v>0.33845850318029</v>
       </c>
       <c r="S9">
         <v>12096909667</v>
@@ -980,11 +974,8 @@
       <c r="W9">
         <v>12096909667</v>
       </c>
-      <c r="X9">
-        <v>12956669707</v>
-      </c>
       <c r="Y9">
-        <v>12956669707</v>
+        <v>12096909667</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -998,22 +989,22 @@
         <v>7.748515842425757</v>
       </c>
       <c r="D10">
-        <v>1.752984198602219</v>
+        <v>8.764920993011094</v>
       </c>
       <c r="E10">
-        <v>1.966070396094679</v>
+        <v>9.830351980473397</v>
       </c>
       <c r="F10">
-        <v>8.764920993011094</v>
+        <v>0.6258773405055948</v>
       </c>
       <c r="G10">
-        <v>9.830351980473397</v>
+        <v>1.041102995151324</v>
       </c>
       <c r="H10">
-        <v>1.312249842826815</v>
+        <v>3.129386702527975</v>
       </c>
       <c r="I10">
-        <v>1.710106231369059</v>
+        <v>5.205514975756619</v>
       </c>
       <c r="J10">
         <v>3.901985039547859</v>
@@ -1031,13 +1022,13 @@
         <v>3.901985039547859</v>
       </c>
       <c r="O10">
-        <v>3.658638780093058</v>
+        <v>-8.367180898027012</v>
       </c>
       <c r="P10">
-        <v>2.306901271149125</v>
+        <v>3.901985039547859</v>
       </c>
       <c r="Q10">
-        <v>2.306901271149125</v>
+        <v>-8.367180898027012</v>
       </c>
       <c r="R10">
         <v>660204378</v>
@@ -1055,13 +1046,13 @@
         <v>660204378</v>
       </c>
       <c r="W10">
-        <v>705481484</v>
+        <v>-130919670</v>
       </c>
       <c r="X10">
-        <v>1212797515</v>
+        <v>660204378</v>
       </c>
       <c r="Y10">
-        <v>1212797515</v>
+        <v>-130919670</v>
       </c>
     </row>
   </sheetData>
